--- a/Legacy/2024_25_II.xlsx
+++ b/Legacy/2024_25_II.xlsx
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
